--- a/biology/Histoire de la zoologie et de la botanique/Carl_Wilhelm_Hahn_(zoologiste)/Carl_Wilhelm_Hahn_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Wilhelm_Hahn_(zoologiste)/Carl_Wilhelm_Hahn_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Wilhelm Hahn est un zoologiste bavarois, né le 16 décembre 1786 et mort le 7 novembre 1836.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Hahn vit à Nuremberg et étudie les araignées de son pays. Il leur consacre deux livres qu'une mort prématurée empêche de terminer : Monographie des Spinnen et Die Arachniden (1831 à 1838). Hahn ne signera que les quatre premiers volumes de ce dernier livre  qui en comprend seize ; il sera achevé par Carl Ludwig Koch (1778-1857).
 Il publie également un atlas sur les oiseaux intitulé Die Vögel aus Asien, Afrika, America und Neuholland (1819-1836).
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1834. Die wanzenartigen Insecten. Getreu nach der Natur abgebildet und beschrieben. Deuxième volume. C.H. Zehschen Buchhandlung, Nuremberg. 2 : 142 pp.</t>
         </is>
